--- a/toplam-kesim-adetleri.xlsx
+++ b/toplam-kesim-adetleri.xlsx
@@ -1,37 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8C6C9F-E59C-4DDF-B7F9-14E7A04DA815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Toplam Kesim Adetleri" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Toplam Kesim Adetleri" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Toplam Kesim Adetleri'!$A$1:$D$27</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>Model</t>
   </si>
@@ -45,12 +25,18 @@
     <t>VARYANT</t>
   </si>
   <si>
+    <t>816</t>
+  </si>
+  <si>
     <t>S56036</t>
   </si>
   <si>
     <t>001 WEISS</t>
   </si>
   <si>
+    <t>475</t>
+  </si>
+  <si>
     <t>S54766</t>
   </si>
   <si>
@@ -144,9 +130,6 @@
     <t>S59121</t>
   </si>
   <si>
-    <t>CHARCOAL VİPER</t>
-  </si>
-  <si>
     <t>42PH7401 BASIC POLO</t>
   </si>
   <si>
@@ -192,7 +175,7 @@
     <t>S56961</t>
   </si>
   <si>
-    <t>SCARAB STRİPES : W SNOW WHITE</t>
+    <t>SCARAB STRIPES : W SNOW WHITE</t>
   </si>
   <si>
     <t>281</t>
@@ -204,20 +187,20 @@
     <t>SCHWARZ</t>
   </si>
   <si>
-    <t>TİNTE</t>
+    <t>TINTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,11 +223,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,407 +563,362 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>540</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>544</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1521</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>297</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>574</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>2255</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>894</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>2112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>1606</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>1049</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>329</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
         <v>54</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>311</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>928</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>183</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
         <v>2310</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>816</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2255</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>816</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2205</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2112</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1521</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="C25">
         <v>1155</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1">
-        <v>936</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1">
-        <v>928</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1">
-        <v>894</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1">
-        <v>878</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1">
-        <v>728</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1">
-        <v>574</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>544</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>475</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>540</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1">
-        <v>329</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1">
-        <v>311</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1">
-        <v>297</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1">
-        <v>183</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1">
-        <v>113</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1">
-        <v>102</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
-        <v>72</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="1">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1">
-        <v>36</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>471</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1">
-        <v>20</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>45</v>
+      <c r="D25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D27" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D27">
-      <sortCondition descending="1" ref="C1:C27"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/toplam-kesim-adetleri.xlsx
+++ b/toplam-kesim-adetleri.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+  <si>
+    <t>Müşteri</t>
+  </si>
   <si>
     <t>Model</t>
   </si>
@@ -25,6 +28,48 @@
     <t>VARYANT</t>
   </si>
   <si>
+    <t>COMFYBALLS</t>
+  </si>
+  <si>
+    <t>COMFYCEL REGULAR</t>
+  </si>
+  <si>
+    <t>S59119</t>
+  </si>
+  <si>
+    <t>BLACK N WHITE</t>
+  </si>
+  <si>
+    <t>COTTON REGULAR</t>
+  </si>
+  <si>
+    <t>S59094</t>
+  </si>
+  <si>
+    <t>CHARCOAL FLAME ORANGE</t>
+  </si>
+  <si>
+    <t>PERFORMANCE LONG</t>
+  </si>
+  <si>
+    <t>S59120</t>
+  </si>
+  <si>
+    <t>CHARCOAL VIPER</t>
+  </si>
+  <si>
+    <t>PERFORMANCE REGULAR</t>
+  </si>
+  <si>
+    <t>S59121</t>
+  </si>
+  <si>
+    <t>NAVY RACING RED</t>
+  </si>
+  <si>
+    <t>HAKRO</t>
+  </si>
+  <si>
     <t>816</t>
   </si>
   <si>
@@ -88,6 +133,36 @@
     <t>034 TINTE</t>
   </si>
   <si>
+    <t>PİLOT</t>
+  </si>
+  <si>
+    <t>S58275</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>S59695</t>
+  </si>
+  <si>
+    <t>POLO BLACK</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>S58955</t>
+  </si>
+  <si>
+    <t>SCHWARZ</t>
+  </si>
+  <si>
+    <t>TINTE</t>
+  </si>
+  <si>
+    <t>RALPH LAUREN</t>
+  </si>
+  <si>
     <t xml:space="preserve">710883329 - M1 CEKET </t>
   </si>
   <si>
@@ -97,37 +172,25 @@
     <t>AVIATOR NAVY</t>
   </si>
   <si>
-    <t>COMFYCEL REGULAR</t>
-  </si>
-  <si>
-    <t>S59119</t>
-  </si>
-  <si>
-    <t>BLACK N WHITE</t>
-  </si>
-  <si>
-    <t>COTTON REGULAR</t>
-  </si>
-  <si>
-    <t>S59094</t>
-  </si>
-  <si>
-    <t>CHARCOAL FLAME ORANGE</t>
-  </si>
-  <si>
-    <t>PERFORMANCE LONG</t>
-  </si>
-  <si>
-    <t>S59120</t>
-  </si>
-  <si>
-    <t>CHARCOAL VIPER</t>
-  </si>
-  <si>
-    <t>PERFORMANCE REGULAR</t>
-  </si>
-  <si>
-    <t>S59121</t>
+    <t>SELECTED FEMME</t>
+  </si>
+  <si>
+    <t>SLFANNA LS CREW NECK TEE STR S NOOS</t>
+  </si>
+  <si>
+    <t>S58924</t>
+  </si>
+  <si>
+    <t>OATMEAL STRIPES : w SNOW WHITE</t>
+  </si>
+  <si>
+    <t>S56961</t>
+  </si>
+  <si>
+    <t>SCARAB STRIPES : W SNOW WHITE</t>
+  </si>
+  <si>
+    <t>SOCIEDAD</t>
   </si>
   <si>
     <t>42PH7401 BASIC POLO</t>
@@ -143,51 +206,6 @@
   </si>
   <si>
     <t>MARRON</t>
-  </si>
-  <si>
-    <t>PİLOT</t>
-  </si>
-  <si>
-    <t>S58275</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>NAVY RACING RED</t>
-  </si>
-  <si>
-    <t>SLFANNA LS CREW NECK TEE STR S NOOS</t>
-  </si>
-  <si>
-    <t>S58924</t>
-  </si>
-  <si>
-    <t>OATMEAL STRIPES : w SNOW WHITE</t>
-  </si>
-  <si>
-    <t>S59695</t>
-  </si>
-  <si>
-    <t>POLO BLACK</t>
-  </si>
-  <si>
-    <t>S56961</t>
-  </si>
-  <si>
-    <t>SCARAB STRIPES : W SNOW WHITE</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>S58955</t>
-  </si>
-  <si>
-    <t>SCHWARZ</t>
-  </si>
-  <si>
-    <t>TINTE</t>
   </si>
 </sst>
 </file>
@@ -564,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,341 +598,416 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>1606</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1049</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>928</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
         <v>2205</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
         <v>540</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
         <v>544</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
         <v>1521</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
         <v>297</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>574</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>2255</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>894</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>2112</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>574</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>2255</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14">
-        <v>1606</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="C15">
-        <v>1049</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C16">
-        <v>329</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <v>311</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>2310</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1155</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20">
-        <v>928</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>894</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21">
         <v>183</v>
       </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23">
+        <v>329</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24">
-        <v>2310</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25">
-        <v>1155</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>311</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
